--- a/biology/Zoologie/Armigeres/Armigeres.xlsx
+++ b/biology/Zoologie/Armigeres/Armigeres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Armigeres sont un genre de moustiques relevant de la sous-famille des Culicinae et de la tribu des Aedini. Ils regroupent 56 espèces réparties en 2 sous-genres : le sous-genre Armigeres (38 espèces) et le sous-genre Leicesteria (18 espèces).
 Ces moustiques se rencontrent uniquement dans la région orientale pour le sous-genre Leicesteria et les régions orientales et australasienne pour le sous-genre Armigeres
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-genre Armigeres Theobald
 Arm. (Armigeres) alkatirii Toma, Miyagi &amp; Syafruddin, 1995
@@ -609,7 +623,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence BioLib : Armigeres
  Portail de l’entomologie                     </t>
